--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,12 +247,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2892368480753495</v>
+        <v>0.28951790997397864</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2813503877153008</v>
+        <v>0.28151337369643492</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0086252958952939152</v>
+        <v>-0.0086793457888323603</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00054993192401244309</v>
+        <v>-0.00055981483586349415</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00033932117028486727</v>
+        <v>-0.00039016896472588184</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00058273875507608235</v>
+        <v>0.00058225414956792135</v>
       </c>
       <c r="H3" s="0">
-        <v>8.1866768738230995e-05</v>
+        <v>7.9849764249308302e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00087941497479975363</v>
+        <v>0.00087862018306081183</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>8.4068130928482976e-05</v>
+        <v>8.4069214999982211e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28610844820152914</v>
+        <v>0.28686280348612803</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0012263434398172273</v>
+        <v>0.0018227661922254968</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.3463974162226003e-05</v>
+        <v>-2.3471376288807089e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>8.5724767132326868e-05</v>
+        <v>8.4747841270086559e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00028315881296874873</v>
+        <v>0.00028219062404033219</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0030353546917572557</v>
+        <v>0.0030322595377798261</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.6925390505832567e-07</v>
+        <v>-1.7098273188762175e-07</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00015111200262007962</v>
+        <v>0.00015110795339806637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26783627981459168</v>
+        <v>0.26791468093292709</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.001688757599300639</v>
+        <v>-0.00221362263038758</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0102692505501987</v>
+        <v>-0.010356518640263384</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.002204013714028126</v>
+        <v>-0.0022137701167173106</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0059218844356263107</v>
+        <v>-0.0059719743751832513</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0015237673750965646</v>
+        <v>0.001521976083575994</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0001995624326253048</v>
+        <v>-0.00020155361784646316</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0003694185199946277</v>
+        <v>0.00036922447730047109</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00011811444975040608</v>
+        <v>0.00011811626632057814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.49181066385725514</v>
+        <v>0.49166886250211389</v>
       </c>
       <c r="C6" s="0">
-        <v>0.2175120541586632</v>
+        <v>0.21729468855113709</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.4245215088466753e-05</v>
+        <v>-3.4241908068343297e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0010548734869322001</v>
+        <v>0.0010543023650383717</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00068410548562556706</v>
+        <v>0.00068343377364829397</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0047544467137773617</v>
+        <v>0.0047528543780150749</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>3.1494127535891536e-06</v>
+        <v>3.1444094163446401e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.49841802575211946</v>
+        <v>0.49821017552680824</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0066727382207632316</v>
+        <v>-0.0066884013805939349</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0014217669512016607</v>
+        <v>0.0014134196012066435</v>
       </c>
       <c r="F7" s="0">
-        <v>0.011272953922422495</v>
+        <v>0.011230098141451657</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00023201788777956086</v>
+        <v>0.00023276964452411775</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00092894897705494191</v>
+        <v>0.00092901438888209182</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00057558762283110854</v>
+        <v>-0.00057558737077623157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17032818034904354</v>
+        <v>0.17267193400212133</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.32538170469741229</v>
+        <v>-0.32283365461240082</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.3309973033953487e-05</v>
+        <v>6.3311544395894023e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.003564897651129809</v>
+        <v>-0.0035640209706762774</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-8.6020758559926766e-05</v>
+        <v>-8.5978741924538403e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00079570099341853395</v>
+        <v>0.00079834133866599666</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.3766737573598427e-05</v>
+        <v>8.3759917252845817e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.038198563092303073</v>
+        <v>0.040432406569817725</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.025190258217246218</v>
+        <v>-0.025350078806031115</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.014105624279175751</v>
+        <v>-0.014096434938587869</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.088014269317460647</v>
+        <v>-0.087967090707753909</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0024971315393019066</v>
+        <v>-0.0025048144622745756</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00222359066030791</v>
+        <v>-0.0022216029106557843</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00017190037654114441</v>
+        <v>-0.00017266691063481097</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>7.3157133293116905e-05</v>
+        <v>7.3161303634466934e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30565338542285164</v>
+        <v>0.31455878036039209</v>
       </c>
       <c r="C10" s="0">
-        <v>0.30424361880715228</v>
+        <v>0.31109650407446776</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00062286284974432901</v>
+        <v>-0.00062285172029014578</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0049279956570754515</v>
+        <v>0.0049179770466792382</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00034525449239814447</v>
+        <v>-0.00034524826166564953</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00071405121949059003</v>
+        <v>-0.00072249273071800361</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.049378052856592802</v>
+        <v>-0.049540936733465581</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093434292845466782</v>
+        <v>0.0093434221155667685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.41876720223403419</v>
+        <v>0.42575127339425134</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0063805950928081945</v>
+        <v>0.0053087908854710653</v>
       </c>
       <c r="E11" s="0">
-        <v>0.017846539732471179</v>
+        <v>0.017720438671829195</v>
       </c>
       <c r="F11" s="0">
-        <v>0.12746809212315005</v>
+        <v>0.12682068193449261</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0015161310618542526</v>
+        <v>0.0014951519468150878</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0001306646444004609</v>
+        <v>-0.0001578993372511636</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.010053893457009232</v>
+        <v>-0.010081711129216254</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.02991298309769147</v>
+        <v>-0.029912959938281303</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.30931049877876737</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.06639871258513183</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0011728655003356296</v>
+      </c>
+      <c r="F12" s="0">
+        <v>9.6048599723840222e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>3.419446692734647e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0072240246776874972</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044121145919651439</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,12 +388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28951790997397864</v>
+        <v>0.2896472990105981</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28151337369643492</v>
+        <v>0.28166255230557907</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0086793457888323603</v>
+        <v>-0.0086793301321735801</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00055981483586349415</v>
+        <v>-0.00055652701138621144</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00039016896472588184</v>
+        <v>-0.00037325303694077004</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00058225414956792135</v>
+        <v>0.00058171979906828438</v>
       </c>
       <c r="H3" s="0">
-        <v>7.9849764249308302e-05</v>
+        <v>8.0520776682629108e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00087862018306081183</v>
+        <v>0.00087805359778868222</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>8.4069214999982211e-05</v>
+        <v>8.4069301941935848e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28686280348612803</v>
+        <v>0.28714824317825943</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0018227661922254968</v>
+        <v>0.0019639567901419443</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.3471376288807089e-05</v>
+        <v>-2.3468923244008225e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>8.4747841270086559e-05</v>
+        <v>8.3866965156756138e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00028219062404033219</v>
+        <v>0.00028119125726859442</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0030322595377798261</v>
+        <v>0.0030292122960336775</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.7098273188762175e-07</v>
+        <v>-1.7638207008571202e-07</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00015110795339806637</v>
+        <v>0.00015110886939345702</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.26791468093292709</v>
+        <v>0.26839995686228746</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00221362263038758</v>
+        <v>-0.0018973904360497619</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.010356518640263384</v>
+        <v>-0.010410274615895649</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0022137701167173106</v>
+        <v>-0.0022235666697450903</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0059719743751832513</v>
+        <v>-0.0060222704489166397</v>
       </c>
       <c r="G5" s="0">
-        <v>0.001521976083575994</v>
+        <v>0.0015214888063190587</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00020155361784646316</v>
+        <v>-0.00020355299735432539</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00036922447730047109</v>
+        <v>0.00036916249449229485</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00011811626632057814</v>
+        <v>0.00011811755117813183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.49166886250211389</v>
+        <v>0.4932470550896435</v>
       </c>
       <c r="C6" s="0">
-        <v>0.21729468855113709</v>
+        <v>0.21841080758726544</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.4241908068343297e-05</v>
+        <v>-3.4238281632438121e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0010543023650383717</v>
+        <v>0.0010491861326436035</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00068343377364829397</v>
+        <v>0.00067777638277287627</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0047528543780150749</v>
+        <v>0.0047404241737953375</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>3.1444094163446401e-06</v>
+        <v>3.142232511188503e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.49821017552680824</v>
+        <v>0.49902286067520213</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0066884013805939349</v>
+        <v>-0.0070327338751828214</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0014134196012066435</v>
+        <v>0.0013451708134378159</v>
       </c>
       <c r="F7" s="0">
-        <v>0.011230098141451657</v>
+        <v>0.010879704890672385</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00023276964452411775</v>
+        <v>0.00023054284732924022</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00092901438888209182</v>
+        <v>0.00092870089776398996</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00057558737077623157</v>
+        <v>-0.00057557998846197167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17267193400212133</v>
+        <v>0.16145609295191901</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.32283365461240082</v>
+        <v>-0.33485079025878284</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.3311544395894023e-05</v>
+        <v>6.3324413680751715e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0035640209706762774</v>
+        <v>-0.0035665810631345771</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-8.5978741924538403e-05</v>
+        <v>-8.5634630211238908e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00079834133866599666</v>
+        <v>0.00078912376726222107</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.3759917252845817e-05</v>
+        <v>8.3790047902543296e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.040432406569817725</v>
+        <v>0.029890003057392256</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.025350078806031115</v>
+        <v>-0.024537536596100439</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.014096434938587869</v>
+        <v>-0.014124584144512353</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.087967090707753909</v>
+        <v>-0.088111610370200419</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0025048144622745756</v>
+        <v>-0.0024687753245284483</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0022216029106557843</v>
+        <v>-0.0022276720816133658</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00017266691063481097</v>
+        <v>-0.00016905198354485508</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>7.3161303634466934e-05</v>
+        <v>7.31406059731321e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.31455878036039209</v>
+        <v>0.30283124186786403</v>
       </c>
       <c r="C10" s="0">
-        <v>0.31109650407446776</v>
+        <v>0.30849785473767549</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00062285172029014578</v>
+        <v>-0.00062288596069629335</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0049179770466792382</v>
+        <v>0.0049651682278269464</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00034524826166564953</v>
+        <v>-0.00034526743087266655</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00072249273071800361</v>
+        <v>-0.0006829464891588016</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.049540936733465581</v>
+        <v>-0.048214107150034727</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093434221155667685</v>
+        <v>0.0093434228757318105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.42575127339425134</v>
+        <v>0.42047587314527735</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0053087908854710653</v>
+        <v>0.0080997074820903375</v>
       </c>
       <c r="E11" s="0">
-        <v>0.017720438671829195</v>
+        <v>0.018289719259111138</v>
       </c>
       <c r="F11" s="0">
-        <v>0.12682068193449261</v>
+        <v>0.12974340162086859</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0014951519468150878</v>
+        <v>0.0015105805399185639</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0001578993372511636</v>
+        <v>-3.4918356472176965e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.010081711129216254</v>
+        <v>-0.010050846029491753</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.029912959938281303</v>
+        <v>-0.029913013238611397</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.30931049877876737</v>
+        <v>0.23813278476597563</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.06639871258513183</v>
+        <v>-0.076574874676097998</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.0011728655003356296</v>
+        <v>0.0011626078625637834</v>
       </c>
       <c r="F12" s="0">
-        <v>9.6048599723840222e-05</v>
+        <v>-0.01501101502751233</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>3.419446692734647e-05</v>
+        <v>-0.0082384894903034661</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0072240246776874972</v>
+        <v>-0.039696043951579794</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044121145919651439</v>
+        <v>-0.043985273096371902</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.23845703880773586</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.012525457691274319</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.082983123721856886</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.083959934106038719</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00069567258924900684</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0022770288425965875</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.002846941081498897</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.17966700921058346</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.13105828788412516</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.091614996655715916</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0012479348796827826</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00088690368261081756</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-6.7188120064096219e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.013458249732254783</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00012347785328231664</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.2896472990105981</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.28166255230557907</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28714824317825943</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.26839995686228746</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.4932470550896435</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.49902286067520213</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.16145609295191901</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.029890003057392256</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.30283124186786403</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.42047587314527735</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.23813278476597563</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.23845703880773586</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13105828788412516</v>
+        <v>0.1164574646329993</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.091614996655715916</v>
+        <v>-0.091179119551375643</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0012479348796827826</v>
+        <v>-0.001246442725051346</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00088690368261081756</v>
+        <v>-0.001621063053864738</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-6.7188120064096219e-05</v>
+        <v>-0.0077690088539522769</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.013458249732254783</v>
+        <v>-0.021064158884654897</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00012347785328231664</v>
+        <v>0.0008802188941623712</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.38320880978268107</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.35984078207565062</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0053084446306083874</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.011850026758021402</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0020229737294608198</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.1353068839420776</v>
       </c>
     </row>
   </sheetData>
